--- a/Additional/Pulses/pulses-quality.xlsx
+++ b/Additional/Pulses/pulses-quality.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="25875" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="25875" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="mean" sheetId="1" r:id="rId1"/>
     <sheet name="sd" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -86,10 +86,10 @@
     <t>Valine</t>
   </si>
   <si>
-    <t>Aspartic.acid</t>
-  </si>
-  <si>
-    <t>Glutamic.acid</t>
+    <t>Aspartate</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +546,7 @@
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3">
@@ -604,7 +604,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3">
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3">
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="3">
